--- a/data/trans_orig/P3A_R1-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P3A_R1-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{146A21BA-D52B-4B54-B516-AAE2D9B51D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{67C343AD-6A17-4A63-A886-8316572D5E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B3CA32BD-F6CD-43D2-9F8E-F28BBF162A15}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{1BF0C7B5-F020-4E40-9879-82368A4960CD}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="640">
   <si>
     <t>Hogares según si las tareas domésticas las realiza principalmente el/la entrevistado/a junto con su pareja en 2007 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -71,7 +71,7 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>SÍ</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>19,9%</t>
@@ -101,7 +101,7 @@
     <t>20,96%</t>
   </si>
   <si>
-    <t>NO</t>
+    <t>No</t>
   </si>
   <si>
     <t>80,1%</t>
@@ -587,7 +587,58 @@
     <t>Hogares según si las tareas domésticas las realiza principalmente el/la entrevistado/a junto con su pareja en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>70,58%</t>
+  </si>
+  <si>
+    <t>64,95%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
   </si>
   <si>
     <t>24,22%</t>
@@ -692,354 +743,354 @@
     <t>78,94%</t>
   </si>
   <si>
-    <t>29,53%</t>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>65,2%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>72,54%</t>
+  </si>
+  <si>
+    <t>70,86%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>Hogares según si las tareas domésticas las realiza principalmente el/la entrevistado/a junto con su pareja en 2016 (Tasa respuesta: 99,8%)</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
   </si>
   <si>
     <t>26,11%</t>
   </si>
   <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
   </si>
   <si>
     <t>73,89%</t>
   </si>
   <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>75,38%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>72,54%</t>
-  </si>
-  <si>
-    <t>70,86%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>Hogares según si las tareas domésticas las realiza principalmente el/la entrevistado/a junto con su pareja en 2016 (Tasa respuesta: 99,8%)</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
     <t>81,14%</t>
   </si>
   <si>
@@ -1100,9 +1151,6 @@
     <t>40,4%</t>
   </si>
   <si>
-    <t>35,05%</t>
-  </si>
-  <si>
     <t>45,54%</t>
   </si>
   <si>
@@ -1127,9 +1175,6 @@
     <t>54,46%</t>
   </si>
   <si>
-    <t>64,95%</t>
-  </si>
-  <si>
     <t>77,82%</t>
   </si>
   <si>
@@ -1466,460 +1511,454 @@
     <t>Hogares según si las tareas domésticas las realiza principalmente el/la entrevistado/a junto con su pareja en 2023 (Tasa respuesta: 99,95%)</t>
   </si>
   <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
   </si>
   <si>
     <t>26,71%</t>
   </si>
   <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
   </si>
   <si>
     <t>73,29%</t>
   </si>
   <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
+    <t>68,77%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>74,24%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>59,69%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
   </si>
   <si>
     <t>27,54%</t>
   </si>
   <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>66,24%</t>
   </si>
   <si>
     <t>72,46%</t>
   </si>
   <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>71,43%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>59,7%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>67,28%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>67,39%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>67,6%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
   </si>
   <si>
     <t>18,4%</t>
   </si>
   <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
   </si>
   <si>
     <t>81,6%</t>
   </si>
   <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>59,74%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>67,19%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>75,28%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
   </si>
 </sst>
 </file>
@@ -2331,7 +2370,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D84F6F0F-D4D3-4978-9B54-AE4CF73B279C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD436DD0-675C-42E4-87CA-4D0683ED72F8}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3743,7 +3782,7 @@
         <v>2564</v>
       </c>
       <c r="D29" s="7">
-        <v>2590650</v>
+        <v>2590649</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>172</v>
@@ -3758,7 +3797,7 @@
         <v>2896</v>
       </c>
       <c r="I29" s="7">
-        <v>2969998</v>
+        <v>2969997</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>174</v>
@@ -3794,7 +3833,7 @@
         <v>3213</v>
       </c>
       <c r="D30" s="7">
-        <v>3275662</v>
+        <v>3275661</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3809,7 +3848,7 @@
         <v>3293</v>
       </c>
       <c r="I30" s="7">
-        <v>3374646</v>
+        <v>3374645</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -3862,7 +3901,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464FD0B1-C807-4847-B58C-E019F5CE0033}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20EA9DD8-D2B0-4EA3-9F7A-D397DBC5AB0C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3980,43 +4019,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>75</v>
+      </c>
+      <c r="D4" s="7">
+        <v>86713</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>182</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="I4" s="7">
+        <v>25276</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>98</v>
+      </c>
+      <c r="N4" s="7">
+        <v>111988</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4025,43 +4070,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>207</v>
+      </c>
+      <c r="D5" s="7">
+        <v>208025</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>233</v>
+      </c>
+      <c r="I5" s="7">
+        <v>261969</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>440</v>
+      </c>
+      <c r="N5" s="7">
+        <v>469995</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4070,43 +4121,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D6" s="7">
+        <v>294738</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I6" s="7">
+        <v>287245</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N6" s="7">
+        <v>581983</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4123,13 +4180,13 @@
         <v>122203</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="H7" s="7">
         <v>60</v>
@@ -4138,13 +4195,13 @@
         <v>68570</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="M7" s="7">
         <v>178</v>
@@ -4153,13 +4210,13 @@
         <v>190773</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4174,13 +4231,13 @@
         <v>382265</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="H8" s="7">
         <v>420</v>
@@ -4189,13 +4246,13 @@
         <v>455195</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="M8" s="7">
         <v>773</v>
@@ -4204,13 +4261,13 @@
         <v>837460</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4278,13 +4335,13 @@
         <v>82741</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="H10" s="7">
         <v>32</v>
@@ -4293,13 +4350,13 @@
         <v>35697</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="M10" s="7">
         <v>117</v>
@@ -4308,13 +4365,13 @@
         <v>118437</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>74</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4329,13 +4386,13 @@
         <v>241305</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="H11" s="7">
         <v>285</v>
@@ -4344,13 +4401,13 @@
         <v>305323</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="M11" s="7">
         <v>519</v>
@@ -4359,10 +4416,10 @@
         <v>546629</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>84</v>
@@ -4427,49 +4484,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>177</v>
+        <v>102</v>
       </c>
       <c r="D13" s="7">
-        <v>197502</v>
+        <v>110790</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="H13" s="7">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="I13" s="7">
-        <v>74565</v>
+        <v>49290</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="M13" s="7">
-        <v>246</v>
+        <v>148</v>
       </c>
       <c r="N13" s="7">
-        <v>272068</v>
+        <v>160080</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4478,49 +4535,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>449</v>
+        <v>242</v>
       </c>
       <c r="D14" s="7">
-        <v>471218</v>
+        <v>263192</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="H14" s="7">
-        <v>558</v>
+        <v>325</v>
       </c>
       <c r="I14" s="7">
-        <v>601631</v>
+        <v>339661</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="M14" s="7">
-        <v>1007</v>
+        <v>567</v>
       </c>
       <c r="N14" s="7">
-        <v>1072848</v>
+        <v>602853</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4529,10 +4586,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4544,10 +4601,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I15" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4559,10 +4616,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N15" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4588,13 +4645,13 @@
         <v>39998</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="H16" s="7">
         <v>33</v>
@@ -4603,13 +4660,13 @@
         <v>33006</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="M16" s="7">
         <v>71</v>
@@ -4618,13 +4675,13 @@
         <v>73005</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4639,13 +4696,13 @@
         <v>172620</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="H17" s="7">
         <v>179</v>
@@ -4654,13 +4711,13 @@
         <v>186585</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="M17" s="7">
         <v>337</v>
@@ -4669,13 +4726,13 @@
         <v>359204</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4743,13 +4800,13 @@
         <v>82466</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="H19" s="7">
         <v>49</v>
@@ -4758,13 +4815,13 @@
         <v>51780</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="M19" s="7">
         <v>127</v>
@@ -4773,13 +4830,13 @@
         <v>134246</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4794,13 +4851,13 @@
         <v>191515</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="H20" s="7">
         <v>220</v>
@@ -4809,13 +4866,13 @@
         <v>228251</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="M20" s="7">
         <v>403</v>
@@ -4824,13 +4881,13 @@
         <v>419766</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4898,13 +4955,13 @@
         <v>182620</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="H22" s="7">
         <v>115</v>
@@ -4913,13 +4970,13 @@
         <v>123569</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="M22" s="7">
         <v>286</v>
@@ -4928,13 +4985,13 @@
         <v>306188</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4949,13 +5006,13 @@
         <v>480168</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="H23" s="7">
         <v>521</v>
@@ -4964,13 +5021,13 @@
         <v>570284</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="M23" s="7">
         <v>968</v>
@@ -4979,13 +5036,13 @@
         <v>1050453</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5053,13 +5110,13 @@
         <v>233217</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="H25" s="7">
         <v>129</v>
@@ -5068,10 +5125,10 @@
         <v>140944</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>16</v>
@@ -5083,13 +5140,13 @@
         <v>374161</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5104,13 +5161,13 @@
         <v>545881</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="H26" s="7">
         <v>626</v>
@@ -5119,13 +5176,13 @@
         <v>680908</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="M26" s="7">
         <v>1129</v>
@@ -5134,13 +5191,13 @@
         <v>1226789</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5208,13 +5265,13 @@
         <v>940747</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="H28" s="7">
         <v>487</v>
@@ -5223,13 +5280,13 @@
         <v>528131</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="M28" s="7">
         <v>1368</v>
@@ -5238,10 +5295,10 @@
         <v>1468879</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>40</v>
@@ -5259,13 +5316,13 @@
         <v>2484972</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="H29" s="7">
         <v>2809</v>
@@ -5274,13 +5331,13 @@
         <v>3028177</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="M29" s="7">
         <v>5136</v>
@@ -5289,13 +5346,13 @@
         <v>5513148</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>48</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5375,7 +5432,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77141FA0-A663-477C-A992-EFE38C0624A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54BB5360-63CC-4BB6-AA0F-6F23DA446538}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5392,7 +5449,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5499,13 +5556,13 @@
         <v>91389</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="H4" s="7">
         <v>37</v>
@@ -5514,13 +5571,13 @@
         <v>39463</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="M4" s="7">
         <v>120</v>
@@ -5529,13 +5586,13 @@
         <v>130852</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>218</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5550,13 +5607,13 @@
         <v>202372</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="H5" s="7">
         <v>240</v>
@@ -5565,13 +5622,13 @@
         <v>249240</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="M5" s="7">
         <v>423</v>
@@ -5580,13 +5637,13 @@
         <v>451612</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>228</v>
+        <v>349</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5654,13 +5711,13 @@
         <v>146590</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="H7" s="7">
         <v>78</v>
@@ -5669,13 +5726,13 @@
         <v>81821</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="M7" s="7">
         <v>216</v>
@@ -5684,13 +5741,13 @@
         <v>228412</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5705,13 +5762,13 @@
         <v>352269</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="H8" s="7">
         <v>405</v>
@@ -5720,13 +5777,13 @@
         <v>440329</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="M8" s="7">
         <v>739</v>
@@ -5735,13 +5792,13 @@
         <v>792597</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5809,13 +5866,13 @@
         <v>128403</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>353</v>
+        <v>184</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="H10" s="7">
         <v>75</v>
@@ -5824,13 +5881,13 @@
         <v>74594</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="M10" s="7">
         <v>206</v>
@@ -5839,13 +5896,13 @@
         <v>202998</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5860,13 +5917,13 @@
         <v>189426</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>362</v>
+        <v>192</v>
       </c>
       <c r="H11" s="7">
         <v>257</v>
@@ -5875,13 +5932,13 @@
         <v>261715</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="M11" s="7">
         <v>460</v>
@@ -5890,13 +5947,13 @@
         <v>451140</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5964,13 +6021,13 @@
         <v>117164</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="H13" s="7">
         <v>48</v>
@@ -5979,13 +6036,13 @@
         <v>50473</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="M13" s="7">
         <v>157</v>
@@ -5994,13 +6051,13 @@
         <v>167637</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6015,13 +6072,13 @@
         <v>250896</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="H14" s="7">
         <v>310</v>
@@ -6030,13 +6087,13 @@
         <v>336810</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="M14" s="7">
         <v>553</v>
@@ -6045,13 +6102,13 @@
         <v>587706</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6119,13 +6176,13 @@
         <v>76604</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="H16" s="7">
         <v>42</v>
@@ -6134,13 +6191,13 @@
         <v>40292</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="M16" s="7">
         <v>118</v>
@@ -6149,13 +6206,13 @@
         <v>116896</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6170,13 +6227,13 @@
         <v>134617</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="H17" s="7">
         <v>180</v>
@@ -6185,13 +6242,13 @@
         <v>177341</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="M17" s="7">
         <v>316</v>
@@ -6200,13 +6257,13 @@
         <v>311958</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6274,13 +6331,13 @@
         <v>65917</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="H19" s="7">
         <v>31</v>
@@ -6289,13 +6346,13 @@
         <v>31572</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="M19" s="7">
         <v>94</v>
@@ -6307,10 +6364,10 @@
         <v>116</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6325,13 +6382,13 @@
         <v>195572</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="H20" s="7">
         <v>231</v>
@@ -6340,13 +6397,13 @@
         <v>240502</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>416</v>
+        <v>431</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="M20" s="7">
         <v>426</v>
@@ -6358,10 +6415,10 @@
         <v>124</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>419</v>
+        <v>434</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6429,13 +6486,13 @@
         <v>190755</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="H22" s="7">
         <v>156</v>
@@ -6444,13 +6501,13 @@
         <v>158950</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="M22" s="7">
         <v>321</v>
@@ -6459,13 +6516,13 @@
         <v>349705</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6480,13 +6537,13 @@
         <v>464753</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="H23" s="7">
         <v>488</v>
@@ -6495,13 +6552,13 @@
         <v>530312</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="M23" s="7">
         <v>902</v>
@@ -6510,13 +6567,13 @@
         <v>995065</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6584,13 +6641,13 @@
         <v>280433</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="H25" s="7">
         <v>170</v>
@@ -6599,13 +6656,13 @@
         <v>179982</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="M25" s="7">
         <v>439</v>
@@ -6614,13 +6671,13 @@
         <v>460415</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6635,13 +6692,13 @@
         <v>498150</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
       <c r="H26" s="7">
         <v>585</v>
@@ -6650,13 +6707,13 @@
         <v>646185</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="M26" s="7">
         <v>1066</v>
@@ -6665,13 +6722,13 @@
         <v>1144335</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6739,13 +6796,13 @@
         <v>1097255</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="H28" s="7">
         <v>637</v>
@@ -6754,13 +6811,13 @@
         <v>657148</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
       <c r="M28" s="7">
         <v>1671</v>
@@ -6769,13 +6826,13 @@
         <v>1754403</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>462</v>
+        <v>477</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>463</v>
+        <v>478</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6790,13 +6847,13 @@
         <v>2288054</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>466</v>
+        <v>481</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>467</v>
+        <v>482</v>
       </c>
       <c r="H29" s="7">
         <v>2696</v>
@@ -6805,13 +6862,13 @@
         <v>2882432</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="M29" s="7">
         <v>4885</v>
@@ -6820,13 +6877,13 @@
         <v>5170487</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>472</v>
+        <v>487</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6906,7 +6963,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{791B4109-145E-4A2F-962C-D2691E7667D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A87415-4640-41C8-8294-832F44C35463}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6923,7 +6980,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7027,46 +7084,46 @@
         <v>87</v>
       </c>
       <c r="D4" s="7">
-        <v>67440</v>
+        <v>77469</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>70</v>
+        <v>491</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>476</v>
+        <v>492</v>
       </c>
       <c r="H4" s="7">
         <v>132</v>
       </c>
       <c r="I4" s="7">
-        <v>72498</v>
+        <v>77364</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>477</v>
+        <v>493</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>446</v>
+        <v>495</v>
       </c>
       <c r="M4" s="7">
         <v>219</v>
       </c>
       <c r="N4" s="7">
-        <v>139938</v>
+        <v>154833</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>479</v>
+        <v>496</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7078,46 +7135,46 @@
         <v>244</v>
       </c>
       <c r="D5" s="7">
-        <v>192858</v>
+        <v>233974</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>482</v>
+        <v>499</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>483</v>
+        <v>500</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>79</v>
+        <v>501</v>
       </c>
       <c r="H5" s="7">
         <v>406</v>
       </c>
       <c r="I5" s="7">
-        <v>198905</v>
+        <v>212271</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>484</v>
+        <v>502</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>454</v>
+        <v>503</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>485</v>
+        <v>504</v>
       </c>
       <c r="M5" s="7">
         <v>650</v>
       </c>
       <c r="N5" s="7">
-        <v>391762</v>
+        <v>446244</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>486</v>
+        <v>505</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>487</v>
+        <v>506</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>488</v>
+        <v>507</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7129,7 +7186,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -7144,7 +7201,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -7159,7 +7216,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -7182,46 +7239,46 @@
         <v>171</v>
       </c>
       <c r="D7" s="7">
-        <v>213613</v>
+        <v>208941</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>489</v>
+        <v>508</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>490</v>
+        <v>509</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>491</v>
+        <v>510</v>
       </c>
       <c r="H7" s="7">
         <v>222</v>
       </c>
       <c r="I7" s="7">
-        <v>168248</v>
+        <v>157180</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>492</v>
+        <v>511</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>493</v>
+        <v>512</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>494</v>
+        <v>513</v>
       </c>
       <c r="M7" s="7">
         <v>393</v>
       </c>
       <c r="N7" s="7">
-        <v>381861</v>
+        <v>366121</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>495</v>
+        <v>514</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>496</v>
+        <v>515</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>497</v>
+        <v>516</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7233,46 +7290,46 @@
         <v>211</v>
       </c>
       <c r="D8" s="7">
-        <v>305684</v>
+        <v>309449</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>498</v>
+        <v>517</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>499</v>
+        <v>518</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>500</v>
+        <v>519</v>
       </c>
       <c r="H8" s="7">
         <v>495</v>
       </c>
       <c r="I8" s="7">
-        <v>386318</v>
+        <v>357789</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>501</v>
+        <v>520</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>502</v>
+        <v>521</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>503</v>
+        <v>522</v>
       </c>
       <c r="M8" s="7">
         <v>706</v>
       </c>
       <c r="N8" s="7">
-        <v>692003</v>
+        <v>667238</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>504</v>
+        <v>523</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>505</v>
+        <v>524</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>506</v>
+        <v>525</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7284,7 +7341,7 @@
         <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7299,7 +7356,7 @@
         <v>717</v>
       </c>
       <c r="I9" s="7">
-        <v>554566</v>
+        <v>514969</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7314,7 +7371,7 @@
         <v>1099</v>
       </c>
       <c r="N9" s="7">
-        <v>1073864</v>
+        <v>1033359</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7337,46 +7394,46 @@
         <v>120</v>
       </c>
       <c r="D10" s="7">
-        <v>106825</v>
+        <v>104026</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>507</v>
+        <v>526</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>508</v>
+        <v>527</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>509</v>
+        <v>528</v>
       </c>
       <c r="H10" s="7">
         <v>155</v>
       </c>
       <c r="I10" s="7">
-        <v>105216</v>
+        <v>98969</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>510</v>
+        <v>529</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>511</v>
+        <v>530</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>512</v>
+        <v>531</v>
       </c>
       <c r="M10" s="7">
         <v>275</v>
       </c>
       <c r="N10" s="7">
-        <v>212041</v>
+        <v>202995</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>513</v>
+        <v>492</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>515</v>
+        <v>533</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7388,46 +7445,46 @@
         <v>239</v>
       </c>
       <c r="D11" s="7">
-        <v>214749</v>
+        <v>211392</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>516</v>
+        <v>534</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>517</v>
+        <v>535</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>518</v>
+        <v>536</v>
       </c>
       <c r="H11" s="7">
         <v>379</v>
       </c>
       <c r="I11" s="7">
-        <v>266705</v>
+        <v>248899</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>519</v>
+        <v>537</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>520</v>
+        <v>538</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>521</v>
+        <v>539</v>
       </c>
       <c r="M11" s="7">
         <v>618</v>
       </c>
       <c r="N11" s="7">
-        <v>481454</v>
+        <v>460291</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>522</v>
+        <v>500</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>523</v>
+        <v>540</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>524</v>
+        <v>541</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7439,7 +7496,7 @@
         <v>359</v>
       </c>
       <c r="D12" s="7">
-        <v>321574</v>
+        <v>315418</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7454,7 +7511,7 @@
         <v>534</v>
       </c>
       <c r="I12" s="7">
-        <v>371921</v>
+        <v>347868</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7469,7 +7526,7 @@
         <v>893</v>
       </c>
       <c r="N12" s="7">
-        <v>693495</v>
+        <v>663286</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7492,46 +7549,46 @@
         <v>89</v>
       </c>
       <c r="D13" s="7">
-        <v>105906</v>
+        <v>101257</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>525</v>
+        <v>542</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>526</v>
+        <v>441</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>527</v>
+        <v>543</v>
       </c>
       <c r="H13" s="7">
         <v>100</v>
       </c>
       <c r="I13" s="7">
-        <v>75371</v>
+        <v>69194</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>108</v>
+        <v>544</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>222</v>
+        <v>545</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>528</v>
+        <v>546</v>
       </c>
       <c r="M13" s="7">
         <v>189</v>
       </c>
       <c r="N13" s="7">
-        <v>181277</v>
+        <v>170451</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>529</v>
+        <v>33</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>531</v>
+        <v>548</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7543,46 +7600,46 @@
         <v>203</v>
       </c>
       <c r="D14" s="7">
-        <v>216334</v>
+        <v>211300</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>532</v>
+        <v>549</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>533</v>
+        <v>550</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>534</v>
+        <v>450</v>
       </c>
       <c r="H14" s="7">
         <v>499</v>
       </c>
       <c r="I14" s="7">
-        <v>353185</v>
+        <v>406524</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>117</v>
+        <v>551</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>535</v>
+        <v>552</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>230</v>
+        <v>553</v>
       </c>
       <c r="M14" s="7">
         <v>702</v>
       </c>
       <c r="N14" s="7">
-        <v>569519</v>
+        <v>617823</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>536</v>
+        <v>43</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>537</v>
+        <v>554</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>538</v>
+        <v>555</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7594,7 +7651,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7609,7 +7666,7 @@
         <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7624,7 +7681,7 @@
         <v>891</v>
       </c>
       <c r="N15" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7647,46 +7704,46 @@
         <v>67</v>
       </c>
       <c r="D16" s="7">
-        <v>45549</v>
+        <v>41625</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>539</v>
+        <v>556</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>540</v>
+        <v>557</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>541</v>
+        <v>558</v>
       </c>
       <c r="H16" s="7">
         <v>112</v>
       </c>
       <c r="I16" s="7">
-        <v>52041</v>
+        <v>47515</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>542</v>
+        <v>559</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>543</v>
+        <v>560</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>544</v>
+        <v>561</v>
       </c>
       <c r="M16" s="7">
         <v>179</v>
       </c>
       <c r="N16" s="7">
-        <v>97589</v>
+        <v>89140</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>545</v>
+        <v>562</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>546</v>
+        <v>563</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>547</v>
+        <v>564</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7698,46 +7755,46 @@
         <v>211</v>
       </c>
       <c r="D17" s="7">
-        <v>150700</v>
+        <v>136650</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>548</v>
+        <v>565</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>549</v>
+        <v>566</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>550</v>
+        <v>567</v>
       </c>
       <c r="H17" s="7">
         <v>383</v>
       </c>
       <c r="I17" s="7">
-        <v>207472</v>
+        <v>211264</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>551</v>
+        <v>568</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>552</v>
+        <v>569</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>553</v>
+        <v>570</v>
       </c>
       <c r="M17" s="7">
         <v>594</v>
       </c>
       <c r="N17" s="7">
-        <v>358173</v>
+        <v>347915</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>554</v>
+        <v>571</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>555</v>
+        <v>572</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>556</v>
+        <v>573</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7749,7 +7806,7 @@
         <v>278</v>
       </c>
       <c r="D18" s="7">
-        <v>196249</v>
+        <v>178275</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7764,7 +7821,7 @@
         <v>495</v>
       </c>
       <c r="I18" s="7">
-        <v>259513</v>
+        <v>258779</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7779,7 +7836,7 @@
         <v>773</v>
       </c>
       <c r="N18" s="7">
-        <v>455762</v>
+        <v>437055</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7802,46 +7859,46 @@
         <v>147</v>
       </c>
       <c r="D19" s="7">
-        <v>111730</v>
+        <v>108544</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>557</v>
+        <v>574</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>558</v>
+        <v>575</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>559</v>
+        <v>576</v>
       </c>
       <c r="H19" s="7">
         <v>158</v>
       </c>
       <c r="I19" s="7">
-        <v>102301</v>
+        <v>95534</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>560</v>
+        <v>577</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>561</v>
+        <v>578</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>562</v>
+        <v>579</v>
       </c>
       <c r="M19" s="7">
         <v>305</v>
       </c>
       <c r="N19" s="7">
-        <v>214031</v>
+        <v>204078</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>563</v>
+        <v>580</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>564</v>
+        <v>581</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>565</v>
+        <v>582</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7853,46 +7910,46 @@
         <v>224</v>
       </c>
       <c r="D20" s="7">
-        <v>165493</v>
+        <v>161092</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>566</v>
+        <v>583</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>567</v>
+        <v>584</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>568</v>
+        <v>585</v>
       </c>
       <c r="H20" s="7">
         <v>302</v>
       </c>
       <c r="I20" s="7">
-        <v>173321</v>
+        <v>161522</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>569</v>
+        <v>586</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>570</v>
+        <v>587</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>571</v>
+        <v>588</v>
       </c>
       <c r="M20" s="7">
         <v>526</v>
       </c>
       <c r="N20" s="7">
-        <v>338814</v>
+        <v>322614</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>572</v>
+        <v>589</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>573</v>
+        <v>590</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>574</v>
+        <v>591</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7904,7 +7961,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7919,7 +7976,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7934,7 +7991,7 @@
         <v>831</v>
       </c>
       <c r="N21" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7957,46 +8014,46 @@
         <v>193</v>
       </c>
       <c r="D22" s="7">
-        <v>180425</v>
+        <v>174609</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>575</v>
+        <v>592</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>576</v>
+        <v>593</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="H22" s="7">
         <v>227</v>
       </c>
       <c r="I22" s="7">
-        <v>164244</v>
+        <v>153210</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>578</v>
+        <v>595</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>579</v>
+        <v>596</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
       <c r="M22" s="7">
         <v>420</v>
       </c>
       <c r="N22" s="7">
-        <v>344669</v>
+        <v>327819</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>582</v>
+        <v>563</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>583</v>
+        <v>599</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8008,46 +8065,46 @@
         <v>406</v>
       </c>
       <c r="D23" s="7">
-        <v>447329</v>
+        <v>449670</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>584</v>
+        <v>600</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>585</v>
+        <v>601</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>586</v>
+        <v>602</v>
       </c>
       <c r="H23" s="7">
         <v>733</v>
       </c>
       <c r="I23" s="7">
-        <v>639959</v>
+        <v>696055</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>587</v>
+        <v>603</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>588</v>
+        <v>604</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>589</v>
+        <v>605</v>
       </c>
       <c r="M23" s="7">
         <v>1139</v>
       </c>
       <c r="N23" s="7">
-        <v>1087288</v>
+        <v>1145725</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>590</v>
+        <v>606</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>591</v>
+        <v>607</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>592</v>
+        <v>573</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8059,7 +8116,7 @@
         <v>599</v>
       </c>
       <c r="D24" s="7">
-        <v>627754</v>
+        <v>624279</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -8074,7 +8131,7 @@
         <v>960</v>
       </c>
       <c r="I24" s="7">
-        <v>804203</v>
+        <v>849265</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -8089,7 +8146,7 @@
         <v>1559</v>
       </c>
       <c r="N24" s="7">
-        <v>1431957</v>
+        <v>1473544</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -8112,46 +8169,46 @@
         <v>123</v>
       </c>
       <c r="D25" s="7">
-        <v>136966</v>
+        <v>115759</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>593</v>
+        <v>115</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>594</v>
+        <v>608</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>595</v>
+        <v>609</v>
       </c>
       <c r="H25" s="7">
         <v>56</v>
       </c>
       <c r="I25" s="7">
-        <v>43303</v>
+        <v>36363</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>596</v>
+        <v>610</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>597</v>
+        <v>611</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>598</v>
+        <v>612</v>
       </c>
       <c r="M25" s="7">
         <v>179</v>
       </c>
       <c r="N25" s="7">
-        <v>180269</v>
+        <v>152122</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>599</v>
+        <v>613</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>600</v>
+        <v>614</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>601</v>
+        <v>615</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8163,46 +8220,46 @@
         <v>639</v>
       </c>
       <c r="D26" s="7">
-        <v>722462</v>
+        <v>812961</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>602</v>
+        <v>125</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>603</v>
+        <v>616</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>604</v>
+        <v>617</v>
       </c>
       <c r="H26" s="7">
         <v>1006</v>
       </c>
       <c r="I26" s="7">
-        <v>825131</v>
+        <v>681368</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>605</v>
+        <v>618</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>606</v>
+        <v>619</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>607</v>
+        <v>620</v>
       </c>
       <c r="M26" s="7">
         <v>1645</v>
       </c>
       <c r="N26" s="7">
-        <v>1547593</v>
+        <v>1494330</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>608</v>
+        <v>621</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>609</v>
+        <v>622</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>610</v>
+        <v>623</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8214,7 +8271,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -8229,7 +8286,7 @@
         <v>1062</v>
       </c>
       <c r="I27" s="7">
-        <v>868434</v>
+        <v>717731</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -8244,7 +8301,7 @@
         <v>1824</v>
       </c>
       <c r="N27" s="7">
-        <v>1727862</v>
+        <v>1646452</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -8267,46 +8324,46 @@
         <v>997</v>
       </c>
       <c r="D28" s="7">
-        <v>968454</v>
+        <v>932230</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>611</v>
+        <v>624</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>493</v>
+        <v>625</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>612</v>
+        <v>626</v>
       </c>
       <c r="H28" s="7">
         <v>1162</v>
       </c>
       <c r="I28" s="7">
-        <v>783221</v>
+        <v>735328</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>613</v>
+        <v>439</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>614</v>
+        <v>627</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>615</v>
+        <v>628</v>
       </c>
       <c r="M28" s="7">
         <v>2159</v>
       </c>
       <c r="N28" s="7">
-        <v>1751675</v>
+        <v>1667558</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>616</v>
+        <v>629</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>617</v>
+        <v>630</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>618</v>
+        <v>631</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8318,46 +8375,46 @@
         <v>2377</v>
       </c>
       <c r="D29" s="7">
-        <v>2415610</v>
+        <v>2526488</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>619</v>
+        <v>632</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>620</v>
+        <v>633</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>503</v>
+        <v>634</v>
       </c>
       <c r="H29" s="7">
         <v>4203</v>
       </c>
       <c r="I29" s="7">
-        <v>3050997</v>
+        <v>2975692</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>621</v>
+        <v>449</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>622</v>
+        <v>635</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>623</v>
+        <v>636</v>
       </c>
       <c r="M29" s="7">
         <v>6580</v>
       </c>
       <c r="N29" s="7">
-        <v>5466607</v>
+        <v>5502180</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>624</v>
+        <v>637</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>625</v>
+        <v>638</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8369,7 +8426,7 @@
         <v>3374</v>
       </c>
       <c r="D30" s="7">
-        <v>3384064</v>
+        <v>3458718</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8384,7 +8441,7 @@
         <v>5365</v>
       </c>
       <c r="I30" s="7">
-        <v>3834218</v>
+        <v>3711020</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8399,7 +8456,7 @@
         <v>8739</v>
       </c>
       <c r="N30" s="7">
-        <v>7218282</v>
+        <v>7169738</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
